--- a/IFC_Lenght_Validations.xlsx
+++ b/IFC_Lenght_Validations.xlsx
@@ -26,22 +26,22 @@
     <t>Storey</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Length</t>
+    <t>Height of Wall</t>
+  </si>
+  <si>
+    <t>Length of Wall(L)</t>
   </si>
   <si>
     <t>Thickness</t>
   </si>
   <si>
-    <t>No. Of Openings</t>
-  </si>
-  <si>
-    <t>Height of Biggest Opening</t>
-  </si>
-  <si>
-    <t>Effective Length</t>
+    <t>Openings in Wall</t>
+  </si>
+  <si>
+    <t>Height of Taller Opening</t>
+  </si>
+  <si>
+    <t>Effective Length(l)</t>
   </si>
   <si>
     <t>Formula</t>
@@ -377,13 +377,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4300.0</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="G6" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -697,13 +697,13 @@
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>4400.0</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="G16" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
